--- a/Statistics/200m Medley_statistics.xlsx
+++ b/Statistics/200m Medley_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,12 +682,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Manith Randula Attanapola</t>
+          <t>Christian Tronvoll</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.14,67</t>
+          <t>2.14,69</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -695,12 +695,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29.11.2014</t>
+          <t>18.01.2014</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -717,12 +717,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Christian Tronvoll</t>
+          <t>Manith Randula Attanapola</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2.14,69</t>
+          <t>2.14,67</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -730,12 +730,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.01.2014</t>
+          <t>29.11.2014</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1662,7 +1662,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Solum Ole Peder Uthus</t>
+          <t>Ole Peder Uthus Solum</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1802,12 +1802,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ådne Viken Refseth</t>
+          <t>Arnt Martin Ystenes</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2.27,48</t>
+          <t>2.27,55</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>29.11.2014</t>
+          <t>22.01.2010</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1837,12 +1837,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Arnt Martin Ystenes</t>
+          <t>Ådne Viken Refseth</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2.27,55</t>
+          <t>2.27,48</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22.01.2010</t>
+          <t>29.11.2014</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1872,12 +1872,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Vetle Henriksen</t>
+          <t>Daniel Moen Manriquez</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2.27,94</t>
+          <t>2.27,96</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1885,12 +1885,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>18.04.2010</t>
+          <t>03.12.2017</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sognsvann</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1907,12 +1907,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Daniel Moen Manriquez</t>
+          <t>Vetle Henriksen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2.27,96</t>
+          <t>2.27,94</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>03.12.2017</t>
+          <t>18.04.2010</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Sognsvann</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2362,12 +2362,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Jakob Isaksen</t>
+          <t>Sondre Brunvoll Møllerløkken</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2.31,96</t>
+          <t>2.32,00</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>27.04.2024</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2432,12 +2432,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sondre Brunvoll Møllerløkken</t>
+          <t>Jakob Isaksen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2.32,00</t>
+          <t>2.31,96</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>27.04.2024</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2677,12 +2677,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aksel Viken Refseth</t>
+          <t>Even Kristoffer Lind Bøckman</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2.37,33</t>
+          <t>2.37,35</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>17.11.2019</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2712,12 +2712,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Even Kristoffer Lind Bøckman</t>
+          <t>Aksel Viken Refseth</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2.37,35</t>
+          <t>2.37,33</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>17.11.2019</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Theodor Solheim</t>
+          <t>Vegard Skjervold</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2.42,40</t>
+          <t>2.42,38</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>30.09.2018</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3097,12 +3097,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Vegard Skjervold</t>
+          <t>Theodor Solheim</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2.42,38</t>
+          <t>2.42,40</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3110,12 +3110,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>30.09.2018</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3272,12 +3272,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sondre Grimsmo</t>
+          <t>Edvin Aurstad Bergum</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2.44,45</t>
+          <t>2.44,42</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10.02.2008</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3307,12 +3307,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Edvin Aurstad Bergum</t>
+          <t>Sondre Grimsmo</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2.44,42</t>
+          <t>2.44,45</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3320,12 +3320,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>10.02.2008</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3447,25 +3447,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Iris Elise Moen</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3.04,81</t>
+          <t>2.45,44</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>30.09.2019</t>
+          <t>15.09.2018</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3482,25 +3482,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Carl Victor Mukisa Nygård</t>
+          <t>Iris Elise Moen</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2.46,89</t>
+          <t>3.04,81</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>21.10.2022</t>
+          <t>30.09.2019</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3517,25 +3517,25 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>David Fjeld</t>
+          <t>Carl Victor Mukisa Nygård</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2.47,22</t>
+          <t>2.46,89</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>20.10.2007</t>
+          <t>21.10.2022</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3552,25 +3552,25 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Reidar Lorentzen</t>
+          <t>David Fjeld</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2.47,47</t>
+          <t>2.47,22</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>09.03.2012</t>
+          <t>20.10.2007</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3587,25 +3587,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Vegard S. Wigum</t>
+          <t>Reidar Lorentzen</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2.47,84</t>
+          <t>2.47,47</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>05.10.2014</t>
+          <t>09.03.2012</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3622,7 +3622,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Edvard Hamnes Ulriksen</t>
+          <t>Vegard S. Wigum</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3635,12 +3635,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>09.06.2025</t>
+          <t>05.10.2014</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3657,25 +3657,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Anton Sergeevich Gorodkov</t>
+          <t>Edvard Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2.48,40</t>
+          <t>2.47,84</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>07.02.2016</t>
+          <t>09.06.2025</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3692,25 +3692,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Magnus Svindland Næsgaard</t>
+          <t>Anton Sergeevich Gorodkov</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2.48,64</t>
+          <t>2.48,40</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12.11.2023</t>
+          <t>07.02.2016</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3727,20 +3727,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Johan Mostervik</t>
+          <t>Magnus Svindland Næsgaard</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2.49,51</t>
+          <t>2.48,64</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>11.02.2018</t>
+          <t>12.11.2023</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3762,20 +3762,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Jonas D. Lesund</t>
+          <t>Johan Mostervik</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2.49,81</t>
+          <t>2.49,51</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>02.11.2013</t>
+          <t>11.02.2018</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3797,25 +3797,25 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Edvin Grenne Spangelo</t>
+          <t>Jonas D. Lesund</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2.50,26</t>
+          <t>2.49,81</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>02.11.2013</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3832,12 +3832,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Thomas Stur Ekrem</t>
+          <t>Edvin Grenne Spangelo</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2.50,32</t>
+          <t>2.50,26</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>12.11.2023</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3902,25 +3902,25 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Vegard Maaø</t>
+          <t>Thomas Stur Ekrem</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2.50,58</t>
+          <t>2.50,32</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20.03.2010</t>
+          <t>12.11.2023</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3937,12 +3937,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>David Csejtey</t>
+          <t>Daniel Haugen Ngwenya</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2.50,54</t>
+          <t>2.50,58</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>19.06.2021</t>
+          <t>25.05.2008</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3972,12 +3972,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Daniel Haugen Ngwenya</t>
+          <t>David Csejtey</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2.50,58</t>
+          <t>2.50,54</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>25.05.2008</t>
+          <t>19.06.2021</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4007,12 +4007,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sigurd Rodal Leirgulen</t>
+          <t>Vegard Maaø</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2.50,56</t>
+          <t>2.50,58</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4020,12 +4020,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>30.09.2019</t>
+          <t>20.03.2010</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4042,25 +4042,25 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Eilert Juul Wolfgang</t>
+          <t>Sigurd Rodal Leirgulen</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2.51,56</t>
+          <t>2.50,56</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>09.02.2014</t>
+          <t>30.09.2019</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4112,25 +4112,25 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Leander Gisvold Restad</t>
+          <t>Eilert Juul Wolfgang</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2.52,34</t>
+          <t>2.51,56</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>18.01.2020</t>
+          <t>09.02.2014</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4147,12 +4147,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Håkon Johansen</t>
+          <t>Leander Gisvold Restad</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2.52,37</t>
+          <t>2.52,34</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>25.03.2006</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4182,25 +4182,25 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Dhanushi Attanapola</t>
+          <t>Håkon Johansen</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3.12,78</t>
+          <t>2.52,37</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>24.05.2009</t>
+          <t>25.03.2006</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4217,20 +4217,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Eirik Hamnes Ulriksen</t>
+          <t>Dhanushi Attanapola</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2.53,88</t>
+          <t>3.12,78</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>24.05.2009</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4252,25 +4252,25 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bjørn Pedersen</t>
+          <t>Eirik Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2.54,08</t>
+          <t>2.53,88</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>12.03.2010</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4287,25 +4287,25 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ellen Kristine Eidsmo Hova</t>
+          <t>Bjørn Pedersen</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3.13,95</t>
+          <t>2.54,08</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>12.03.2010</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4322,25 +4322,25 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Christian Dahle-Øfsti</t>
+          <t>Ellen Kristine Eidsmo Hova</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2.54,56</t>
+          <t>3.13,95</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>27.10.2013</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4392,20 +4392,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lyder Ringsvold Hogstad</t>
+          <t>Christian Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2.55,95</t>
+          <t>2.54,56</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>17.03.2019</t>
+          <t>27.10.2013</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4462,25 +4462,25 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ivan Erikovitch Alvestad</t>
+          <t>Lyder Ringsvold Hogstad</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2.56,21</t>
+          <t>2.55,95</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>24.10.2020</t>
+          <t>17.03.2019</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4497,25 +4497,25 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Pedro Manquehual</t>
+          <t>Ivan Erikovitch Alvestad</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2.56,89</t>
+          <t>2.56,21</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>24.10.2020</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4567,25 +4567,25 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Njål Høie</t>
+          <t>Pedro Manquehual</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2.57,04</t>
+          <t>2.56,89</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>09.02.2014</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4602,25 +4602,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ingjerd Jepsen Vegge</t>
+          <t>Njål Høie</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3.19,59</t>
+          <t>2.57,04</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>13.02.2011</t>
+          <t>09.02.2014</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4637,25 +4637,25 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Philip Giske Nyman</t>
+          <t>Ingjerd Jepsen Vegge</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3.00,17</t>
+          <t>3.19,59</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>13.02.2011</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4672,25 +4672,25 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Lin Carola Magdalene Nygren</t>
+          <t>Philip Giske Nyman</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3.20,87</t>
+          <t>3.00,17</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4707,25 +4707,25 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Brage Gylseth Dahl</t>
+          <t>Lin Carola Magdalene Nygren</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3.01,21</t>
+          <t>3.20,87</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4742,25 +4742,25 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Paal Aagaard</t>
+          <t>Brage Gylseth Dahl</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3.01,64</t>
+          <t>3.01,21</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>12.03.2010</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4777,25 +4777,25 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Tamer Saleh Abuzid</t>
+          <t>Paal Aagaard</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3.03,02</t>
+          <t>3.01,64</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>17.03.2019</t>
+          <t>12.03.2010</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4812,25 +4812,25 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ailin Østerås</t>
+          <t>Tamer Saleh Abuzid</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>3.24,15</t>
+          <t>3.03,02</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>18.06.2011</t>
+          <t>17.03.2019</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4847,20 +4847,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Eirik Ingeberg Garshol</t>
+          <t>Ailin Østerås</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3.04,12</t>
+          <t>3.24,15</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>18.06.2011</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4882,20 +4882,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Victor Voormolen Gutierrez</t>
+          <t>Eirik Ingeberg Garshol</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3.04,21</t>
+          <t>3.04,12</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>23.06.2019</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4917,25 +4917,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Oscar Kvaløy Tiller</t>
+          <t>Victor Voormolen Gutierrez</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3.07,07</t>
+          <t>3.04,21</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>24.10.2021</t>
+          <t>23.06.2019</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4952,25 +4952,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Jon Noé Høye</t>
+          <t>Oscar Kvaløy Tiller</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3.07,16</t>
+          <t>3.07,07</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>27.04.2019</t>
+          <t>24.10.2021</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4987,25 +4987,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Conrad Sippala Hassel</t>
+          <t>Jon Noé Høye</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>3.07,77</t>
+          <t>3.07,16</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>18.01.2020</t>
+          <t>27.04.2019</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5022,25 +5022,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Isabel Ødegård Pedersen</t>
+          <t>Conrad Sippala Hassel</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3.30,17</t>
+          <t>3.07,77</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5057,16 +5057,16 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Liv Løfaldli</t>
+          <t>Isabel Ødegård Pedersen</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3.30,53</t>
+          <t>3.30,17</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -5092,25 +5092,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Emily Liv Liem</t>
+          <t>Liv Løfaldli</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3.32,57</t>
+          <t>3.30,53</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>23.06.2019</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5127,20 +5127,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Kaan Baltaci</t>
+          <t>Emily Liv Liem</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3.13,18</t>
+          <t>3.32,57</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>14.01.2023</t>
+          <t>23.06.2019</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5162,20 +5162,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>William Wale</t>
+          <t>Kaan Baltaci</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3.14,03</t>
+          <t>3.13,18</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>05.10.2014</t>
+          <t>14.01.2023</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5197,25 +5197,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Thomas Paulsen</t>
+          <t>William Wale</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3.14,24</t>
+          <t>3.14,03</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>09.02.2014</t>
+          <t>05.10.2014</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5267,25 +5267,25 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Fredrik Holberg</t>
+          <t>Thomas Paulsen</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3.16,08</t>
+          <t>3.14,24</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>09.02.2014</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5302,25 +5302,25 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sigurd Øie Seland</t>
+          <t>Fredrik Holberg</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3.17,03</t>
+          <t>3.16,08</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5337,20 +5337,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Bjørn Marius Hegge</t>
+          <t>Sigurd Øie Seland</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>3.18,23</t>
+          <t>3.17,03</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>19.11.2022</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5372,25 +5372,25 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Magnus Bakkejord</t>
+          <t>Bjørn Marius Hegge</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3.21,90</t>
+          <t>3.18,23</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>03.12.2011</t>
+          <t>19.11.2022</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5407,25 +5407,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Gunhild Furuholt Valle</t>
+          <t>Magnus Bakkejord</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3.45,15</t>
+          <t>3.21,90</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>03.12.2011</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5442,25 +5442,25 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Setareh Kulsum Sigrid Feyzi</t>
+          <t>Gunhild Furuholt Valle</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3.45,71</t>
+          <t>3.45,15</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>30.09.2018</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5477,25 +5477,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Tor Martin Dahl</t>
+          <t>Setareh Kulsum Sigrid Feyzi</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3.23,58</t>
+          <t>3.45,71</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>18.09.2005</t>
+          <t>30.09.2018</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5512,25 +5512,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Olav Høyland Hofstad</t>
+          <t>Tor Martin Dahl</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>3.24,51</t>
+          <t>3.23,58</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>18.09.2005</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5547,25 +5547,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Liem Emily Liv</t>
+          <t>Olav Høyland Hofstad</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>3.47,84</t>
+          <t>3.24,51</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>28.10.2018</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5582,20 +5582,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Peder Lund Juul</t>
+          <t>Liem Emily Liv</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>3.25,25</t>
+          <t>3.47,84</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>27.04.2024</t>
+          <t>28.10.2018</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5617,20 +5617,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Anton Hoel</t>
+          <t>Peder Lund Juul</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>3.25,54</t>
+          <t>3.25,25</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>15.06.2013</t>
+          <t>27.04.2024</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5652,20 +5652,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Rasmus Larsen Natvig</t>
+          <t>Anton Hoel</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>3.29,62</t>
+          <t>3.25,54</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>15.06.2013</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5687,20 +5687,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sondre Thorgaard</t>
+          <t>Rasmus Larsen Natvig</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>3.29,68</t>
+          <t>3.29,62</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>03.10.2021</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5722,25 +5722,25 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Tymofii Dzisiak</t>
+          <t>Sondre Thorgaard</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>3.30,67</t>
+          <t>3.29,68</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>03.10.2021</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5792,25 +5792,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Robin von Bargen</t>
+          <t>Tymofii Dzisiak</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>3.33,15</t>
+          <t>3.30,67</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>25.01.2009</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5827,12 +5827,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Anniken Skjøstad</t>
+          <t>Jakob M. Tjøstheim</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>3.56,86</t>
+          <t>3.33,12</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>18.01.2020</t>
+          <t>02.11.2013</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5862,12 +5862,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Jakob M. Tjøstheim</t>
+          <t>Robin von Bargen</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>3.33,12</t>
+          <t>3.33,15</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>02.11.2013</t>
+          <t>25.01.2009</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5897,25 +5897,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>Anniken Skjøstad</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>3.34,75</t>
+          <t>3.56,86</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>17.03.2024</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5932,25 +5932,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Brage Kaminka Heiberg</t>
+          <t>Bernard Smuk</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>3.35,64</t>
+          <t>3.34,75</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>12.11.2023</t>
+          <t>17.03.2024</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6002,20 +6002,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Leo Alexander Farias Kristiansen</t>
+          <t>Brage Kaminka Heiberg</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>3.38,22</t>
+          <t>3.35,64</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>12.11.2023</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6072,25 +6072,25 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ingvar Høgås Wik</t>
+          <t>Leo Alexander Farias Kristiansen</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>3.40,87</t>
+          <t>3.38,22</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>14.03.2015</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6107,25 +6107,25 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Angelico Mikkel Andersen</t>
+          <t>Ingvar Høgås Wik</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>3.42,26</t>
+          <t>3.40,87</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>18.01.2020</t>
+          <t>14.03.2015</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6142,25 +6142,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Magnus Hestvik Larsen</t>
+          <t>Angelico Mikkel Andersen</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>3.43,11</t>
+          <t>3.42,26</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6177,25 +6177,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Erik Solbakken Andersen</t>
+          <t>Magnus Hestvik Larsen</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>3.43,59</t>
+          <t>3.43,11</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6212,20 +6212,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Cornelius Wik</t>
+          <t>Erik Solbakken Andersen</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>3.45,09</t>
+          <t>3.43,59</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>27.04.2024</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6247,20 +6247,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Vår Kristine Sollien Skar</t>
+          <t>Cornelius Wik</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>4.10,89</t>
+          <t>3.45,09</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>18.01.2014</t>
+          <t>27.04.2024</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6282,20 +6282,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Morten Johansen</t>
+          <t>Vår Kristine Sollien Skar</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>3.46,81</t>
+          <t>4.10,89</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>15.01.2006</t>
+          <t>18.01.2014</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6317,25 +6317,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Kasper Steen Jensen</t>
+          <t>Morten Johansen</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>3.49,94</t>
+          <t>3.46,81</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>02.11.2024</t>
+          <t>15.01.2006</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6352,25 +6352,25 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Idun Skjærseth</t>
+          <t>Kasper Steen Jensen</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>4.20,98</t>
+          <t>3.49,94</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>03.12.2011</t>
+          <t>02.11.2024</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6387,25 +6387,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Filip Dalsaune</t>
+          <t>Idun Skjærseth</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>3.57,01</t>
+          <t>4.20,98</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>03.12.2011</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6422,20 +6422,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Arild Håkonsen Stixrud</t>
+          <t>Filip Dalsaune</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>3.58,34</t>
+          <t>3.57,01</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>12.11.2023</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6457,20 +6457,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Jesper Øvermo Johansen</t>
+          <t>Arild Håkonsen Stixrud</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>4.00,79</t>
+          <t>3.58,34</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>12.11.2023</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6492,25 +6492,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sigurd Kristoffersen Torvik</t>
+          <t>Jesper Øvermo Johansen</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>4.04,03</t>
+          <t>4.00,79</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6562,25 +6562,25 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Nikan Ommani</t>
+          <t>Sigurd Kristoffersen Torvik</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>4.05,53</t>
+          <t>4.04,03</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>06.04.2024</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6597,20 +6597,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Einar Risholt Moen</t>
+          <t>Nikan Ommani</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>4.06,99</t>
+          <t>4.05,53</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>16.09.2012</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6632,20 +6632,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Marcus Thalberg Fagerheim</t>
+          <t>Einar Risholt Moen</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>4.07,81</t>
+          <t>4.06,99</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>10.10.2010</t>
+          <t>16.09.2012</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6702,20 +6702,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Elias Lien</t>
+          <t>Marcus Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>4.13,28</t>
+          <t>4.07,81</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>15.09.2018</t>
+          <t>10.10.2010</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6737,20 +6737,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Dominic Olav Sollien-Pearn</t>
+          <t>Elias Lien</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>4.18,30</t>
+          <t>4.13,28</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>19.06.2021</t>
+          <t>15.09.2018</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6772,25 +6772,25 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Fredrik Hårsaker Myrenget</t>
+          <t>Dominic Olav Sollien-Pearn</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>4.22,37</t>
+          <t>4.18,30</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>09.04.2016</t>
+          <t>19.06.2021</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6807,25 +6807,25 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Hauk Vold Kirkvold</t>
+          <t>Fredrik Hårsaker Myrenget</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>4.24,12</t>
+          <t>4.22,37</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>09.04.2016</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6842,25 +6842,25 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Eirik Solligård</t>
+          <t>Hauk Vold Kirkvold</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>4.26,60</t>
+          <t>4.24,12</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>14.02.2009</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6877,25 +6877,25 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Hans Otto Søyseth</t>
+          <t>Eirik Solligård</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>4.41,06</t>
+          <t>4.26,60</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>14.03.2015</t>
+          <t>14.02.2009</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6912,25 +6912,25 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Gajithsing Ajeethsing</t>
+          <t>Hans Otto Søyseth</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>4.45,25</t>
+          <t>4.41,06</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>19.06.2021</t>
+          <t>14.03.2015</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6947,12 +6947,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Theodor Hoff</t>
+          <t>Gajithsing Ajeethsing</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>4.45,10</t>
+          <t>4.45,25</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -6960,12 +6960,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>20.04.2013</t>
+          <t>19.06.2021</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6982,33 +6982,68 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>Theodor Hoff</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>4.45,10</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>56</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>20.04.2013</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
           <t>Casper Dahle-Øfsti</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>4.47,36</t>
         </is>
       </c>
-      <c r="C188" t="n">
+      <c r="C189" t="n">
         <v>55</v>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>10.02.2013</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>Trondheim</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -7025,7 +7060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7178,12 +7213,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tudor Ignat</t>
+          <t>Gabriel Rognes Steen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.18,54</t>
+          <t>2.18,49</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -7191,12 +7226,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08.08.2023</t>
+          <t>22.05.2021</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kyushu</t>
+          <t>Funchal</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7213,12 +7248,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gabriel Rognes Steen</t>
+          <t>Tudor Ignat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.18,49</t>
+          <t>2.18,54</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -7226,12 +7261,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.05.2021</t>
+          <t>08.08.2023</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Funchal</t>
+          <t>Kyushu</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -8613,12 +8648,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Henning Andersson</t>
+          <t>Bjørn Erik Ystenes</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2.46,44</t>
+          <t>2.46,33</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -8648,12 +8683,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bjørn Erik Ystenes</t>
+          <t>Henning Andersson</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2.46,33</t>
+          <t>2.46,44</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -8718,25 +8753,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Alfred Fenstad Høysæter</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2.48,42</t>
+          <t>2.48,17</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>05.06.2021</t>
+          <t>01.07.2018</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8753,25 +8788,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Oliver Grøtte Ramstad</t>
+          <t>Alfred Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.48,99</t>
+          <t>2.48,42</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>29.06.2024</t>
+          <t>05.06.2021</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -8788,12 +8823,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Hasith Ransiri Attanapola</t>
+          <t>Oliver Grøtte Ramstad</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2.49,13</t>
+          <t>2.48,99</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -8801,12 +8836,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14.04.2018</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -8823,25 +8858,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sondre Grimsmo</t>
+          <t>Hasith Ransiri Attanapola</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.50,47</t>
+          <t>2.49,13</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>08.06.2007</t>
+          <t>14.04.2018</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -8858,20 +8893,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pedro Manquehual</t>
+          <t>Sondre Grimsmo</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.51,75</t>
+          <t>2.50,47</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>08.06.2007</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -8893,25 +8928,25 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lionel Nicolas Weissbrodt</t>
+          <t>Pedro Manquehual</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2.51,96</t>
+          <t>2.51,75</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>29.06.2024</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -8928,25 +8963,25 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lucas Nachappa Muthanna</t>
+          <t>Lionel Nicolas Weissbrodt</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2.52,50</t>
+          <t>2.51,96</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12.04.2024</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -8963,25 +8998,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Thomas Stur Ekrem</t>
+          <t>Lucas Nachappa Muthanna</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2.54,57</t>
+          <t>2.52,50</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>29.06.2024</t>
+          <t>12.04.2024</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -8998,25 +9033,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sondre Furmyr Johansen</t>
+          <t>Thomas Stur Ekrem</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2.55,10</t>
+          <t>2.54,57</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>05.06.2021</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -9033,20 +9068,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Daniel Haugen Ngwenya</t>
+          <t>Sondre Furmyr Johansen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2.55,47</t>
+          <t>2.55,10</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>04.11.2007</t>
+          <t>05.06.2021</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -9068,25 +9103,25 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Daniel Haugen Ngwenya</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2.55,85</t>
+          <t>2.55,47</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>04.11.2007</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -9103,12 +9138,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Jonas D. Lesund</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2.55,93</t>
+          <t>2.55,85</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -9116,12 +9151,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -9138,25 +9173,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Finn Øivind Fevang</t>
+          <t>Jonas D. Lesund</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2.56,14</t>
+          <t>2.55,93</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>02.07.2006</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -9173,20 +9208,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Eilert Juul Wolfgang</t>
+          <t>Finn Øivind Fevang</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2.56,73</t>
+          <t>2.56,14</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>06.07.2013</t>
+          <t>02.07.2006</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -9208,25 +9243,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Vegard S. Wigum</t>
+          <t>Eilert Juul Wolfgang</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2.57,65</t>
+          <t>2.56,73</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13.06.2014</t>
+          <t>06.07.2013</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -9243,16 +9278,16 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Leo Petter Hauge Sølvberg</t>
+          <t>Vegard S. Wigum</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3.00,01</t>
+          <t>2.57,65</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -9278,25 +9313,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Christian Dahle-Øfsti</t>
+          <t>Leo Petter Hauge Sølvberg</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3.01,16</t>
+          <t>3.00,01</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>06.07.2013</t>
+          <t>13.06.2014</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -9313,25 +9348,25 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Eirik Hamnes Ulriksen</t>
+          <t>Christian Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3.01,66</t>
+          <t>3.01,16</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>06.07.2013</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -9348,16 +9383,16 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Edvin Grenne Spangelo</t>
+          <t>Eirik Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3.02,49</t>
+          <t>3.01,66</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -9383,25 +9418,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Simon Perssønn Mørseth</t>
+          <t>Edvin Grenne Spangelo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3.02,72</t>
+          <t>3.02,49</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>03.06.2023</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -9418,25 +9453,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Tony Christopher Moflag</t>
+          <t>Simon Perssønn Mørseth</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3.04,15</t>
+          <t>3.02,72</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>02.07.2006</t>
+          <t>03.06.2023</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -9453,25 +9488,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lin Carola Magdalene Nygren</t>
+          <t>Tony Christopher Moflag</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3.26,14</t>
+          <t>3.04,15</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>02.07.2006</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -9488,20 +9523,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ask Yifei Baldersheim</t>
+          <t>Lin Carola Magdalene Nygren</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3.07,66</t>
+          <t>3.26,14</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -9523,20 +9558,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Dhanushi Attanapola</t>
+          <t>Ask Yifei Baldersheim</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3.33,44</t>
+          <t>3.07,66</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13.06.2008</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -9558,20 +9593,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Leander Gisvold Restad</t>
+          <t>Dhanushi Attanapola</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3.15,12</t>
+          <t>3.33,44</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>13.06.2008</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -9593,25 +9628,25 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Johannes Tryggestad</t>
+          <t>Leander Gisvold Restad</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3.15,82</t>
+          <t>3.15,12</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>29.04.2018</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -9628,25 +9663,25 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sigurd Øie Seland</t>
+          <t>Johannes Tryggestad</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3.15,99</t>
+          <t>3.15,82</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>29.04.2018</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -9663,25 +9698,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Edvard Hamnes Ulriksen</t>
+          <t>Sigurd Øie Seland</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3.20,35</t>
+          <t>3.15,99</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -9698,25 +9733,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Anton Sergeevich Gorodkov</t>
+          <t>Edvard Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3.23,39</t>
+          <t>3.20,35</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -9733,25 +9768,25 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Olav Høyland Hofstad</t>
+          <t>Anton Sergeevich Gorodkov</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3.30,19</t>
+          <t>3.23,39</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -9768,20 +9803,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Elias Hauge Lien</t>
+          <t>Olav Høyland Hofstad</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3.30,53</t>
+          <t>3.30,19</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -9803,25 +9838,25 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Fredrik Holberg</t>
+          <t>Elias Hauge Lien</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3.32,01</t>
+          <t>3.30,53</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>29.06.2024</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9838,25 +9873,25 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>Fredrik Holberg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3.35,26</t>
+          <t>3.32,01</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -9873,25 +9908,25 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Vegard Maaø</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3.37,21</t>
+          <t>3.35,26</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -9908,25 +9943,25 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Stian Nilsen</t>
+          <t>Vegard Maaø</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3.37,68</t>
+          <t>3.37,21</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>29.04.2006</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9943,25 +9978,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Tymofii Dzisiak</t>
+          <t>Stian Nilsen</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3.41,66</t>
+          <t>3.37,68</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>29.04.2006</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9978,25 +10013,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Magnus Bakkejord</t>
+          <t>Tymofii Dzisiak</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3.43,38</t>
+          <t>3.41,66</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>09.04.2011</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -10013,25 +10048,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Erik Solbakken Andersen</t>
+          <t>Magnus Bakkejord</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3.45,70</t>
+          <t>3.43,38</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>09.04.2011</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -10048,25 +10083,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>William Wale</t>
+          <t>Erik Solbakken Andersen</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3.53,36</t>
+          <t>3.45,70</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -10083,12 +10118,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>William Wale</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3.53,33</t>
+          <t>3.53,36</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -10096,12 +10131,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -10118,33 +10153,68 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>Bernard Smuk</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3.53,33</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>116</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>14.06.2024</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Ankerskogen svømmehall</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>50m</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>Robin von Bargen</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>4.47,51</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="C90" t="n">
         <v>62</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>08.01.2008</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Trondheim</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>50m</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -10161,7 +10231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11224,12 +11294,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Carina Aadahl</t>
+          <t>Maja Graczyk</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.41,00</t>
+          <t>2.40,99</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -11237,12 +11307,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>08.02.2015</t>
+          <t>28.10.2018</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -11259,12 +11329,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Maja Graczyk</t>
+          <t>Carina Aadahl</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.40,99</t>
+          <t>2.41,00</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -11272,12 +11342,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28.10.2018</t>
+          <t>08.02.2015</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -11924,12 +11994,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Inga Maren Steinsdotter Nestgaard</t>
+          <t>Miriam Vedvik</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2.46,49</t>
+          <t>2.46,39</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -11937,12 +12007,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>28.10.2017</t>
+          <t>18.10.2008</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -11959,12 +12029,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Miriam Vedvik</t>
+          <t>Inga Maren Steinsdotter Nestgaard</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.46,39</t>
+          <t>2.46,49</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -11972,12 +12042,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>18.10.2008</t>
+          <t>28.10.2017</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11994,12 +12064,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Thea Haugan</t>
+          <t>Sigrid Eldholm</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.47,20</t>
+          <t>2.47,17</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -12007,12 +12077,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>18.01.2020</t>
+          <t>05.09.2021</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -12029,12 +12099,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ingrid Vie</t>
+          <t>Thea Haugan</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2.47,17</t>
+          <t>2.47,20</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -12042,7 +12112,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>29.03.2025</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -12064,7 +12134,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sigrid Eldholm</t>
+          <t>Ingrid Vie</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -12077,12 +12147,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>05.09.2021</t>
+          <t>29.03.2025</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -12134,12 +12204,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kirsti Bjørnsdatter Paulsen</t>
+          <t>Annika Krill</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2.47,78</t>
+          <t>2.47,75</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -12147,12 +12217,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>03.12.2017</t>
+          <t>12.03.2005</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12169,12 +12239,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Annika Krill</t>
+          <t>Kirsti Bjørnsdatter Paulsen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2.47,75</t>
+          <t>2.47,78</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -12182,12 +12252,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12.03.2005</t>
+          <t>03.12.2017</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -12239,12 +12309,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tage Singstad</t>
+          <t>Cesilie Solberg Jørgensen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2.31,51</t>
+          <t>2.48,41</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -12252,12 +12322,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10.04.2011</t>
+          <t>12.01.2013</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -12309,12 +12379,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cesilie Solberg Jørgensen</t>
+          <t>Tage Singstad</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2.48,41</t>
+          <t>2.31,51</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -12322,12 +12392,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12.01.2013</t>
+          <t>10.04.2011</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -12764,12 +12834,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Live Killingberg Sandberg</t>
+          <t>Anita Klungervik</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2.52,86</t>
+          <t>2.52,84</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -12777,12 +12847,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>18.01.2020</t>
+          <t>17.03.2024</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -12799,12 +12869,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Anita Klungervik</t>
+          <t>Live Killingberg Sandberg</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2.52,84</t>
+          <t>2.52,86</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -12812,12 +12882,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>17.03.2024</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -12974,12 +13044,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kine Marie Sørensen</t>
+          <t>Ane Viken Refseth</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.54,81</t>
+          <t>2.54,89</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -12987,7 +13057,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>20.05.2006</t>
+          <t>16.01.2016</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -13009,12 +13079,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ane Viken Refseth</t>
+          <t>Kine Marie Sørensen</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2.54,89</t>
+          <t>2.54,81</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -13022,7 +13092,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>16.01.2016</t>
+          <t>20.05.2006</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -13044,12 +13114,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Dorottya Csejtey</t>
+          <t>Hedda Østgaard</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2.55,05</t>
+          <t>2.54,95</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -13057,12 +13127,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>12.02.2017</t>
+          <t>09.05.2010</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -13079,12 +13149,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hedda Østgaard</t>
+          <t>Dorottya Csejtey</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2.54,95</t>
+          <t>2.55,05</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -13092,12 +13162,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>09.05.2010</t>
+          <t>12.02.2017</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -13604,12 +13674,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Alisa Kulagina</t>
+          <t>Silje Dahle</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3.01,70</t>
+          <t>3.01,78</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -13617,12 +13687,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>09.02.2019</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -13639,12 +13709,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Silje Dahle</t>
+          <t>Alisa Kulagina</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3.01,78</t>
+          <t>3.01,70</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -13652,12 +13722,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>09.02.2019</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -13814,12 +13884,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Nicole Kulagina</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2.45,44</t>
+          <t>3.04,07</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -13827,12 +13897,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>15.09.2018</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -13849,25 +13919,25 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Nicole Kulagina</t>
+          <t>Elisabeth Holm</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3.04,07</t>
+          <t>3.04,88</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>12.03.2005</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -13884,25 +13954,25 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Elisabeth Holm</t>
+          <t>Sofie Hepsø</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3.04,88</t>
+          <t>3.05,47</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>12.03.2005</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -13919,12 +13989,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sofie Hepsø</t>
+          <t>Aurora Alexandra Bjordal</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3.05,47</t>
+          <t>3.05,49</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -13932,12 +14002,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>13.02.2022</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -13954,12 +14024,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Aurora Alexandra Bjordal</t>
+          <t>Ola vatn Gundersen</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3.05,49</t>
+          <t>2.46,87</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -13967,12 +14037,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>13.02.2022</t>
+          <t>11.02.2018</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -13989,25 +14059,25 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ola vatn Gundersen</t>
+          <t>Sunniva Belsnes</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2.46,87</t>
+          <t>3.05,98</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>11.02.2018</t>
+          <t>21.04.2018</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -14024,25 +14094,25 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sunniva Belsnes</t>
+          <t>Sara Skaalvik Trelstad</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3.05,98</t>
+          <t>3.07,55</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>21.04.2018</t>
+          <t>05.04.2014</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -14059,12 +14129,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sara Skaalvik Trelstad</t>
+          <t>Maria Bøe</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3.07,55</t>
+          <t>3.07,59</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -14072,12 +14142,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>05.04.2014</t>
+          <t>24.05.2009</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -14094,20 +14164,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Maria Bøe</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3.07,59</t>
+          <t>3.07,64</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>24.05.2009</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -14164,16 +14234,16 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Helle Johnsen Selsås</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3.07,64</t>
+          <t>3.07,93</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -14234,25 +14304,25 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Helle Johnsen Selsås</t>
+          <t>Line Steine Bertelsen</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>3.07,93</t>
+          <t>3.08,74</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>19.06.2021</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -14269,25 +14339,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Line Steine Bertelsen</t>
+          <t>Chloe Branlat</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3.08,74</t>
+          <t>3.09,44</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>19.06.2021</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -14304,25 +14374,25 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Chloe Branlat</t>
+          <t>Elisaveta Røste</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3.09,44</t>
+          <t>3.10,87</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -14339,25 +14409,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Elisaveta Røste</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3.10,87</t>
+          <t>2.54,08</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>18.01.2020</t>
+          <t>20.04.2013</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -14374,25 +14444,25 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Michaela Josefin Abeleva Barrera</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2.54,08</t>
+          <t>3.13,74</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>20.04.2013</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -14409,25 +14479,25 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Michaela Josefin Abeleva Barrera</t>
+          <t>Sofia Bjørklund Mora</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3.13,74</t>
+          <t>3.14,90</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>29.11.2014</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -14444,25 +14514,25 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sofia Bjørklund Mora</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3.14,90</t>
+          <t>3.16,51</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>29.11.2014</t>
+          <t>30.09.2019</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -14479,25 +14549,25 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Synnøve Fevang</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3.16,51</t>
+          <t>3.16,96</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>30.09.2019</t>
+          <t>25.03.2006</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -14514,25 +14584,25 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Synnøve Fevang</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3.16,96</t>
+          <t>2.57,64</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>25.03.2006</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -14549,12 +14619,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2.57,64</t>
+          <t>3.17,22</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -14562,12 +14632,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -14584,25 +14654,25 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Helle Lundgren</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3.17,22</t>
+          <t>3.18,05</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>19.03.2023</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -14619,12 +14689,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Helle Lundgren</t>
+          <t>Hilde Stene Rygh</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3.18,05</t>
+          <t>3.18,09</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -14632,7 +14702,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>19.03.2023</t>
+          <t>15.06.2013</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -14654,20 +14724,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hilde Stene Rygh</t>
+          <t>Marthe Eline Waagø-Hansen</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3.18,09</t>
+          <t>3.18,96</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>15.06.2013</t>
+          <t>16.01.2005</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -14689,25 +14759,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Marthe Eline Waagø-Hansen</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3.18,96</t>
+          <t>3.19,51</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>16.01.2005</t>
+          <t>17.03.2024</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -14724,25 +14794,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Ida Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>3.19,51</t>
+          <t>3.19,94</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>17.03.2024</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -14759,20 +14829,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ida Fiskaa Barstad</t>
+          <t>Sigrid Moen Henriksen</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3.19,94</t>
+          <t>3.21,97</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>18.01.2020</t>
+          <t>19.03.2023</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -14794,25 +14864,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sigrid Moen Henriksen</t>
+          <t>Ingrid Lianes</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3.21,97</t>
+          <t>3.22,34</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>19.03.2023</t>
+          <t>24.05.2009</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -14829,25 +14899,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ingrid Lianes</t>
+          <t>Marte Hemmer</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3.22,34</t>
+          <t>3.24,21</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>24.05.2009</t>
+          <t>16.01.2005</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -14899,25 +14969,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Marte Hemmer</t>
+          <t>Pia Helena Wildhagen</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3.24,21</t>
+          <t>3.24,94</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>16.01.2005</t>
+          <t>01.10.2017</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -14934,25 +15004,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Pia Helena Wildhagen</t>
+          <t>Aurora S. Juel</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3.24,94</t>
+          <t>3.25,84</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>01.10.2017</t>
+          <t>03.11.2012</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -15004,20 +15074,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Aurora S. Juel</t>
+          <t>Amalie Gylseth Dahl</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3.25,84</t>
+          <t>3.30,05</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>03.11.2012</t>
+          <t>12.11.2023</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -15039,20 +15109,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Amalie Gylseth Dahl</t>
+          <t>Luma Nicole Farias Kristiansen</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3.30,05</t>
+          <t>3.30,73</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>12.11.2023</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -15074,20 +15144,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Luma Nicole Farias Kristiansen</t>
+          <t>Emma Nedeea Hagen</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>3.30,73</t>
+          <t>3.32,61</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -15109,12 +15179,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Emma Nedeea Hagen</t>
+          <t>Cathrine Hegle</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3.32,61</t>
+          <t>3.32,39</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -15122,12 +15192,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>04.12.2010</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -15144,25 +15214,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Cathrine Hegle</t>
+          <t>Mia Bretun Finserå</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3.32,39</t>
+          <t>3.34,01</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>04.12.2010</t>
+          <t>28.10.2012</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -15179,25 +15249,25 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mia Bretun Finserå</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3.34,01</t>
+          <t>3.37,34</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>28.10.2012</t>
+          <t>02.11.2024</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -15214,25 +15284,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Louise Thys</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3.37,34</t>
+          <t>3.38,35</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>02.11.2024</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -15249,25 +15319,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Louise Thys</t>
+          <t>Julia Tan</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>3.38,35</t>
+          <t>3.39,62</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -15319,20 +15389,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Julia Tan</t>
+          <t>Emilie Sandvik Gangåssæter</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>3.39,62</t>
+          <t>3.41,36</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>28.09.2019</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -15354,25 +15424,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Emilie Sandvik Gangåssæter</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>3.41,36</t>
+          <t>3.45,09</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>28.09.2019</t>
+          <t>02.11.2024</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -15389,25 +15459,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>3.45,09</t>
+          <t>3.45,61</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>02.11.2024</t>
+          <t>23.11.2013</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -15424,12 +15494,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Lea almaas</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>3.45,61</t>
+          <t>3.45,63</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -15437,12 +15507,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>23.11.2013</t>
+          <t>21.01.2012</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -15459,25 +15529,25 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lea almaas</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>3.45,63</t>
+          <t>3.49,47</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>21.01.2012</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -15494,25 +15564,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Ronja Emilia Wikström</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>3.49,47</t>
+          <t>3.50,23</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>17.06.2023</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -15529,20 +15599,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ronja Emilia Wikström</t>
+          <t>Frida Merethe Norli Eidsvåg</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>3.50,23</t>
+          <t>3.55,06</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>17.06.2023</t>
+          <t>20.06.2015</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -15564,20 +15634,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Frida Merethe Norli Eidsvåg</t>
+          <t>Lena Sofie Hammer</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>3.55,06</t>
+          <t>3.56,82</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>20.06.2015</t>
+          <t>18.09.2005</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -15599,25 +15669,25 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Lena Sofie Hammer</t>
+          <t>Julia Beatrice Ferreira Kristiansen</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>3.56,82</t>
+          <t>3.56,98</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>18.09.2005</t>
+          <t>04.12.2016</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -15634,25 +15704,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Julia Beatrice Ferreira Kristiansen</t>
+          <t>Aida Smalø Moen</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>3.56,98</t>
+          <t>3.58,71</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>04.12.2016</t>
+          <t>21.01.2012</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -15669,20 +15739,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Aida Smalø Moen</t>
+          <t>Nicoline Vinje</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>3.58,71</t>
+          <t>4.02,93</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>21.01.2012</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -15704,12 +15774,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Nicoline Vinje</t>
+          <t>Karoline Skjevik</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>4.02,93</t>
+          <t>4.02,48</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -15717,12 +15787,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>23.02.2008</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -15739,25 +15809,25 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Karoline Skjevik</t>
+          <t>Marita Fuglestad Løkken</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>4.02,48</t>
+          <t>4.04,01</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>23.02.2008</t>
+          <t>15.06.2013</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -15774,20 +15844,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Marita Fuglestad Løkken</t>
+          <t>Ramona Vutudal</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>4.04,01</t>
+          <t>4.05,46</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>15.06.2013</t>
+          <t>25.01.2009</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -15809,20 +15879,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ramona Vutudal</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>4.05,46</t>
+          <t>4.05,94</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>25.01.2009</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -15844,25 +15914,25 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Anna Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>4.05,94</t>
+          <t>4.13,87</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>30.11.2019</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -15879,25 +15949,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Anna Fenstad Høysæter</t>
+          <t>Live Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>4.13,87</t>
+          <t>4.14,34</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>30.11.2019</t>
+          <t>02.11.2024</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -15914,25 +15984,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Live Hamnes Ulriksen</t>
+          <t>Charlotte Talseth</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>4.14,34</t>
+          <t>4.17,14</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>02.11.2024</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -15949,25 +16019,25 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Charlotte Talseth</t>
+          <t>Olivia Hjelmeseth Larsen</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>4.17,14</t>
+          <t>4.20,30</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -15984,25 +16054,25 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Olivia Hjelmeseth Larsen</t>
+          <t>Julie Gilbu</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>4.20,30</t>
+          <t>4.21,16</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>14.03.2015</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -16019,25 +16089,25 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Julie Gilbu</t>
+          <t>Hedda Larsen Natvig</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>4.21,16</t>
+          <t>4.22,93</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>14.03.2015</t>
+          <t>17.06.2023</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -16054,25 +16124,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hedda Larsen Natvig</t>
+          <t>Amelia Roaldseth</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>4.22,93</t>
+          <t>4.25,63</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>17.06.2023</t>
+          <t>19.04.2008</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -16089,20 +16159,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Amelia Roaldseth</t>
+          <t>Connie Rakel Lånke</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>4.25,63</t>
+          <t>4.31,30</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>19.04.2008</t>
+          <t>05.04.2014</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -16124,25 +16194,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Connie Rakel Lånke</t>
+          <t>Sunniva Eldholm</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>4.31,30</t>
+          <t>4.35,46</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>05.04.2014</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -16159,25 +16229,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sunniva Eldholm</t>
+          <t>Camilla Gervasoni</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>4.35,46</t>
+          <t>4.39,35</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>03.12.2011</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -16194,20 +16264,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Camilla Gervasoni</t>
+          <t>Kristine Haram Bye</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>4.39,35</t>
+          <t>4.43,86</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>03.12.2011</t>
+          <t>04.12.2010</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -16229,25 +16299,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Kristine Haram Bye</t>
+          <t>Phoebe Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>4.43,86</t>
+          <t>5.02,97</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>04.12.2010</t>
+          <t>09.10.2011</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -16256,41 +16326,6 @@
         </is>
       </c>
       <c r="G174" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Phoebe Thalberg Fagerheim</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>5.02,97</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>65</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>09.10.2011</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
@@ -16307,7 +16342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17300,12 +17335,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Marthe Kalvik</t>
+          <t>Nina Alicja Skarø</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2.52,34</t>
+          <t>2.52,43</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -17313,12 +17348,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>09.06.2006</t>
+          <t>29.04.2018</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -17335,12 +17370,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nina Alicja Skarø</t>
+          <t>Marthe Kalvik</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2.52,43</t>
+          <t>2.52,34</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -17348,12 +17383,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>29.04.2018</t>
+          <t>09.06.2006</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -17895,12 +17930,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Eirill Straum</t>
+          <t>Olea Winnberg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2.58,55</t>
+          <t>2.58,46</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -17908,12 +17943,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.06.2016</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -17930,12 +17965,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Olea Winnberg</t>
+          <t>Eirill Straum</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2.58,46</t>
+          <t>2.58,55</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -17943,12 +17978,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>10.06.2016</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -18315,25 +18350,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Hedda Østgaard</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2.48,17</t>
+          <t>3.07,73</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>01.07.2018</t>
+          <t>12.06.2009</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -18350,25 +18385,25 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hedda Østgaard</t>
+          <t>Frida Pauline Busch</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3.07,73</t>
+          <t>3.08,55</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12.06.2009</t>
+          <t>05.06.2021</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -18385,25 +18420,25 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Frida Pauline Busch</t>
+          <t>Sigrid Eldholm</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3.08,55</t>
+          <t>3.09,36</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>05.06.2021</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -18420,20 +18455,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sigrid Eldholm</t>
+          <t>Helle Johnsen Selsås</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3.09,36</t>
+          <t>3.11,52</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -18455,25 +18490,25 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Helle Johnsen Selsås</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3.11,52</t>
+          <t>2.53,27</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>06.07.2013</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -18490,20 +18525,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Synnøve Fevang</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2.53,27</t>
+          <t>3.11,90</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>06.07.2013</t>
+          <t>02.07.2006</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -18525,25 +18560,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Synnøve Fevang</t>
+          <t>Hege Solberg Jørgensen</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3.11,90</t>
+          <t>3.12,22</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>02.07.2006</t>
+          <t>12.06.2015</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -18560,25 +18595,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Hege Solberg Jørgensen</t>
+          <t>Aurora Moen Wannebo</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3.12,22</t>
+          <t>3.13,33</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12.06.2015</t>
+          <t>06.07.2012</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -18665,25 +18700,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aurora Moen Wannebo</t>
+          <t>Guro Rønningen Osmoen</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3.13,33</t>
+          <t>3.16,41</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>06.07.2012</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -18700,16 +18735,16 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Guro Rønningen Osmoen</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3.16,41</t>
+          <t>3.19,73</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -18735,12 +18770,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3.19,73</t>
+          <t>3.19,70</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -18748,12 +18783,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -18770,20 +18805,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Aurora Alexandra Bjordal</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3.19,70</t>
+          <t>3.22,33</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -18805,12 +18840,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kristina Elena Bjørklund Mora</t>
+          <t>Erika Nicole Hagen</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3.22,16</t>
+          <t>3.22,31</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -18818,12 +18853,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12.06.2009</t>
+          <t>05.06.2021</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -18840,12 +18875,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Erika Nicole Hagen</t>
+          <t>Kristina Elena Bjørklund Mora</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3.22,31</t>
+          <t>3.22,16</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -18853,12 +18888,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>05.06.2021</t>
+          <t>12.06.2009</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -18875,25 +18910,25 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aurora Alexandra Bjordal</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3.22,33</t>
+          <t>3.23,22</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -18910,25 +18945,25 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3.23,22</t>
+          <t>3.25,40</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -18945,25 +18980,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Aase Bjørnsdatter Paulsen</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3.25,40</t>
+          <t>3.25,80</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>02.07.2016</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -18980,25 +19015,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Aase Bjørnsdatter Paulsen</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3.25,80</t>
+          <t>3.27,62</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>02.07.2016</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -19015,25 +19050,25 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Sofia Bjørklund Mora</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3.27,62</t>
+          <t>3.32,27</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -19050,25 +19085,25 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sofia Bjørklund Mora</t>
+          <t>Live Killingberg Sandberg</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3.32,27</t>
+          <t>3.33,21</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>08.06.2018</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -19085,20 +19120,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Live Killingberg Sandberg</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3.33,21</t>
+          <t>3.35,10</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>08.06.2018</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -19155,20 +19190,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Oline Skjønberg</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3.35,10</t>
+          <t>3.37,25</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>08.06.2018</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -19190,25 +19225,25 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Oline Skjønberg</t>
+          <t>Silje Dahle</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3.37,25</t>
+          <t>3.47,73</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>08.06.2018</t>
+          <t>17.04.2016</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -19225,25 +19260,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Silje Dahle</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3.47,73</t>
+          <t>3.53,18</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>17.04.2016</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -19260,25 +19295,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3.53,18</t>
+          <t>3.55,45</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>27.04.2014</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -19295,20 +19330,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Aurora S. Juel</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3.55,45</t>
+          <t>3.56,92</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>27.04.2014</t>
+          <t>09.04.2011</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -19330,25 +19365,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Aurora S. Juel</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3.56,92</t>
+          <t>4.02,36</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>09.04.2011</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19365,25 +19400,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Karoline Skjevik</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4.02,36</t>
+          <t>4.52,63</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -19400,25 +19435,25 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Karoline Skjevik</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4.52,63</t>
+          <t>4.27,31</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -19435,25 +19470,25 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
+          <t>Amelia Roaldseth</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4.27,31</t>
+          <t>5.03,96</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -19470,16 +19505,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Amelia Roaldseth</t>
+          <t>Julia Tan</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>5.03,96</t>
+          <t>5.09,55</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -19497,41 +19532,6 @@
         </is>
       </c>
       <c r="G91" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Julia Tan</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>5.09,55</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>67</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>08.01.2008</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>50m</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
